--- a/Logo-Color.xlsx
+++ b/Logo-Color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914BE8AF-6971-4CA9-BD2C-37D527A53E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D69BC-28D5-4E5C-A4D6-DC5AF7BF8B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="1368" windowWidth="19392" windowHeight="10992" xr2:uid="{1D6ADEC8-E2EE-4542-BCE6-73A1FBCDAF85}"/>
   </bookViews>
@@ -42,33 +42,18 @@
     <t>BID</t>
   </si>
   <si>
-    <t>https://mininnovation.uz/uploads/news/fee8bd37d4f6439117469b6a68e35c97.jpg</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>https://img.europapress.es/fotoweb/fotonoticia_20190116125440_1024.jpg</t>
-  </si>
-  <si>
     <t>GEF</t>
   </si>
   <si>
-    <t>http://www.levert.ma/wp-content/uploads/2018/12/UNFCCC-LOGO.jpg?x23934</t>
-  </si>
-  <si>
-    <t>https://www.2000agro.com.mx/wp-content/uploads/fao-fmam01.jpg</t>
-  </si>
-  <si>
     <t>GCF</t>
   </si>
   <si>
-    <t>https://www.therightinsight.org/media/GreenClimateFund-800x600.jpg</t>
-  </si>
-  <si>
     <t>Organismo</t>
   </si>
   <si>
@@ -97,6 +82,21 @@
   </si>
   <si>
     <t>UNFCCC</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/LOGOS%20ORGANISMOS/world-bank-logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/LOGOS%20ORGANISMOS/0.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/LOGOS%20ORGANISMOS/FMAM-logo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/LOGOS%20ORGANISMOS/download.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-SIS/master/LOGOS%20ORGANISMOS/unb-blurbs-logo-UNFCCC%5B1%5D.png</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,13 +474,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,62 +491,62 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
